--- a/Data/26/Minibio 7 prova 26_ 27102022_ rhPelB BDNF_ OD600.xlsx
+++ b/Data/26/Minibio 7 prova 26_ 27102022_ rhPelB BDNF_ OD600.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CDMO\Process Development RILAO 34 e 36\Fogli di calcolo allegati\Fogli di calcolo Upstream\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wahmed/My Drive (waqarahmed4544@gmail.com)/IIT/ForceField/Smart-Fermenter/new data/26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063DEFE2-75A0-4BA1-ADF1-8FE51A992B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613932B4-E2A6-5F4B-A60E-83A66AE35B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Minibio 7 Prova 26" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -233,20 +233,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -256,7 +255,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,7 +275,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -347,7 +345,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -589,7 +587,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -627,7 +625,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="424178608"/>
@@ -720,7 +718,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -758,7 +756,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="424177952"/>
@@ -810,7 +808,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -840,7 +838,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1713,35 +1711,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G4:L25"/>
+  <dimension ref="G4:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G4" s="19" t="s">
+    <row r="4" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="20"/>
     </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="19" t="s">
+    <row r="6" spans="7:12" x14ac:dyDescent="0.2">
+      <c r="G6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
     </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G9" s="4">
         <v>44861</v>
       </c>
@@ -1765,11 +1763,11 @@
       <c r="I9" s="6">
         <v>0</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="16">
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G10" s="4">
         <v>44861</v>
       </c>
@@ -1783,7 +1781,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G11" s="4">
         <v>44861</v>
       </c>
@@ -1793,11 +1791,11 @@
       <c r="I11" s="6">
         <v>2</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="17">
         <v>2.7349999999999999</v>
       </c>
     </row>
-    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G12" s="4">
         <v>44861</v>
       </c>
@@ -1810,9 +1808,9 @@
       <c r="J12" s="6">
         <v>5.56</v>
       </c>
-      <c r="K12" s="15"/>
+      <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G13" s="4">
         <v>44861</v>
       </c>
@@ -1826,7 +1824,7 @@
         <v>11.66</v>
       </c>
     </row>
-    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G14" s="4">
         <v>44861</v>
       </c>
@@ -1840,7 +1838,7 @@
         <v>26.95</v>
       </c>
     </row>
-    <row r="15" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G15" s="4">
         <v>44861</v>
       </c>
@@ -1853,14 +1851,14 @@
       <c r="J15" s="6">
         <v>28.7</v>
       </c>
-      <c r="K15" s="13" t="s">
+      <c r="K15" s="11" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="7:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:12" x14ac:dyDescent="0.2">
       <c r="G16" s="4">
         <v>44861</v>
       </c>
@@ -1870,14 +1868,14 @@
       <c r="I16" s="8">
         <v>6.4</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="15">
         <v>37.1</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G17" s="4">
         <v>44861</v>
       </c>
@@ -1887,14 +1885,14 @@
       <c r="I17" s="8">
         <v>7.4</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="14">
         <v>36.799999999999997</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G18" s="4">
         <v>44861</v>
       </c>
@@ -1904,14 +1902,14 @@
       <c r="I18" s="8">
         <v>8.4</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="14">
         <v>43.1</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G19" s="4">
         <v>44862</v>
       </c>
@@ -1921,40 +1919,24 @@
       <c r="I19" s="8">
         <v>24</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="14">
         <v>55.6</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G22" s="9"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G23" s="9"/>
       <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:11" x14ac:dyDescent="0.2">
       <c r="G24" s="9"/>
       <c r="H24" s="10"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1966,4 +1948,271 @@
   <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C046284570C074C9FD33E4DFBE124D3" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3507edf0fe8a4d6809da135bdc99deea">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fd35b2cc-da16-4109-82e0-6da883fd779d" xmlns:ns3="f2136858-1eb2-45b2-bfee-5418ca5bf950" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="269869ec490554c6ceba2e9d9cd61db7" ns2:_="" ns3:_="">
+    <xsd:import namespace="fd35b2cc-da16-4109-82e0-6da883fd779d"/>
+    <xsd:import namespace="f2136858-1eb2-45b2-bfee-5418ca5bf950"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fd35b2cc-da16-4109-82e0-6da883fd779d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="14" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="9f398136-f8d2-4c3a-998c-171b47602f67" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f2136858-1eb2-45b2-bfee-5418ca5bf950" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{bcf81975-6d94-4fcd-8bf0-12481f80c75e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="f2136858-1eb2-45b2-bfee-5418ca5bf950">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fd35b2cc-da16-4109-82e0-6da883fd779d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f2136858-1eb2-45b2-bfee-5418ca5bf950" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FB1630E-986F-42F3-8557-2DF9ADA7078C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95A0ED76-1BAC-42D9-A0A0-4A8B4756B6A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd35b2cc-da16-4109-82e0-6da883fd779d"/>
+    <ds:schemaRef ds:uri="f2136858-1eb2-45b2-bfee-5418ca5bf950"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CA5FE6E-5B23-4AF4-89F8-2EB57BC50A09}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fd35b2cc-da16-4109-82e0-6da883fd779d"/>
+    <ds:schemaRef ds:uri="f2136858-1eb2-45b2-bfee-5418ca5bf950"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>